--- a/ML Algorithms.xlsx
+++ b/ML Algorithms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u86004\Documents\Documentos Miguel\Mestrado\S1\Machine Learning\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDE8651-D571-496D-A9E9-894C1DF70485}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8082AA14-5A60-4D3D-913A-0D0C65F52246}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Logistic Regression</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Naive Bayes</t>
   </si>
@@ -45,9 +42,6 @@
     <t>SVM</t>
   </si>
   <si>
-    <t>MLP Classifier</t>
-  </si>
-  <si>
     <t>NN with Keras</t>
   </si>
   <si>
@@ -63,21 +57,56 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>Ensemble</t>
-  </si>
-  <si>
     <t>Descriptive</t>
   </si>
   <si>
     <t>Neural Networks</t>
+  </si>
+  <si>
+    <t>Tree Based Models</t>
+  </si>
+  <si>
+    <t>Decision Tree</t>
+  </si>
+  <si>
+    <t>Tomás</t>
+  </si>
+  <si>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Logistic Regression (and other variations ex: Ridge, LASSO, Elastic-Net)</t>
+  </si>
+  <si>
+    <t>MLP Classifier (sklearn)</t>
+  </si>
+  <si>
+    <t>TabNet</t>
+  </si>
+  <si>
+    <t>sk-neuralnetwork</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -105,9 +134,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -390,111 +422,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="C3" s="1"/>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" t="s">
-        <v>7</v>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A9:A12"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B9:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
